--- a/data/trans_bre/P0902-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.801969046870914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.521374212493642</v>
+        <v>7.521374212493634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5102059034933587</v>
@@ -649,7 +649,7 @@
         <v>0.8235584613733463</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3081773575696383</v>
+        <v>0.308177357569638</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.616914155715936</v>
+        <v>3.738826104328249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.597523213888106</v>
+        <v>8.534201078197704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.506291432549589</v>
+        <v>6.877373548476759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.819768541756633</v>
+        <v>2.450341394792664</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2251862019876124</v>
+        <v>0.2247030574691244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6174503868653644</v>
+        <v>0.5981823865476967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4840839397799933</v>
+        <v>0.5061088408768122</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.06404908990051252</v>
+        <v>0.08773507857714494</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.72896828946403</v>
+        <v>11.7390694211377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.29531495745937</v>
+        <v>15.2692570340169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.78007225118243</v>
+        <v>13.05106344816031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.95147587179918</v>
+        <v>12.98124529363593</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9519870416502129</v>
+        <v>0.961177622884695</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.434661769554775</v>
+        <v>1.392631713900027</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.206842118706613</v>
+        <v>1.245231561707344</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5554269958769644</v>
+        <v>0.6358279384283227</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.303204496153978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.658574262093332</v>
+        <v>8.658574262093335</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5933240697043516</v>
@@ -749,7 +749,7 @@
         <v>0.9210442789225876</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6206216499084768</v>
+        <v>0.620621649908477</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.226197022642918</v>
+        <v>2.183111805561117</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.21577745140967</v>
+        <v>6.300724481259766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.102093602069695</v>
+        <v>4.305025024383552</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.461468372314919</v>
+        <v>5.682038669466603</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2601836446424703</v>
+        <v>0.2386982809620186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5082146334596253</v>
+        <v>0.5069201550156296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.431238360512936</v>
+        <v>0.4546619746593402</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3433500271348739</v>
+        <v>0.3592498169352633</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.318127350914167</v>
+        <v>7.430760777957173</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.68421647713429</v>
+        <v>13.04136236112543</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.43544156454363</v>
+        <v>10.65418290704895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.65487573633009</v>
+        <v>11.74689341335269</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.121461452555332</v>
+        <v>1.076267908724197</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.409115348369794</v>
+        <v>1.393062090997404</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.532002828779152</v>
+        <v>1.641062438813202</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9599397742175589</v>
+        <v>0.9935455661151014</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.625819724300017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.176218237059318</v>
+        <v>6.176218237059319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8115196534541704</v>
@@ -849,7 +849,7 @@
         <v>1.408581778080195</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7099281643523327</v>
+        <v>0.7099281643523331</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.380631919708506</v>
+        <v>2.450827498399579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.965106290131108</v>
+        <v>1.801053602785518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.321013307007049</v>
+        <v>6.290061888103734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.662438277512471</v>
+        <v>3.744415789138806</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3269303511482907</v>
+        <v>0.3552242831628795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.138420726837674</v>
+        <v>0.14354020740115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.765358442394063</v>
+        <v>0.7645273312595556</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3401427201005519</v>
+        <v>0.349670658796924</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.227262263977427</v>
+        <v>7.157668791487739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.422618000336318</v>
+        <v>8.399846170652442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.03918010867341</v>
+        <v>13.25828181167611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.538606612403006</v>
+        <v>8.562344526473135</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.509601291456952</v>
+        <v>1.493462439819947</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9151889313087196</v>
+        <v>0.9027067586746104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.346834629008313</v>
+        <v>2.251232713173326</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.170127690318549</v>
+        <v>1.149974237765219</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.100586521688689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.94466048161702</v>
+        <v>3.944660481617021</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.43642051851795</v>
@@ -949,7 +949,7 @@
         <v>0.5673695506774608</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4323922700025858</v>
+        <v>0.4323922700025861</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.42655624765281</v>
+        <v>2.715719050187039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.250246239917317</v>
+        <v>2.109804425673135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.940294163807939</v>
+        <v>0.9953791427469512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.105908251890622</v>
+        <v>1.225469006379414</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3617958397641788</v>
+        <v>0.4674406498149456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1831386038166087</v>
+        <v>0.1780109698755223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07885380657866771</v>
+        <v>0.06890428487945159</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09189467981916581</v>
+        <v>0.1185527289082187</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.20232922850147</v>
+        <v>10.05851568078439</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.65574637652153</v>
+        <v>11.3499002592013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.592460235953466</v>
+        <v>9.70102756196116</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.531967183870052</v>
+        <v>6.481813124876004</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.537837235118831</v>
+        <v>3.416329264683016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.508817543029421</v>
+        <v>1.626626761817346</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.389702979391517</v>
+        <v>1.434029339504363</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8220586674572468</v>
+        <v>0.8566112494224513</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.501739677458204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.132544147696271</v>
+        <v>7.132544147696268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8271598374029534</v>
@@ -1049,7 +1049,7 @@
         <v>0.9289838162393751</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5701124464333994</v>
+        <v>0.5701124464333992</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.956048311549362</v>
+        <v>4.927600370888086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.027915490440178</v>
+        <v>7.111190963786214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.78001627950586</v>
+        <v>6.875625885588793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.62610116052893</v>
+        <v>5.517147366432611</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5776722161195097</v>
+        <v>0.5661587461064629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5984751152424498</v>
+        <v>0.5975320966862668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6946529939492033</v>
+        <v>0.6880008393585194</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4116360595949957</v>
+        <v>0.4026765945454642</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.208532690118297</v>
+        <v>8.010564687198329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.51636378621181</v>
+        <v>10.74404355022742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.18487967765039</v>
+        <v>10.29999227197695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.740964206211876</v>
+        <v>8.641115881163747</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.11948654028023</v>
+        <v>1.111741245308613</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.041712599030194</v>
+        <v>1.06130959543883</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.207269450955213</v>
+        <v>1.209001582280223</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7472705273403283</v>
+        <v>0.7350510818846882</v>
       </c>
     </row>
     <row r="19">
